--- a/TestDatas/api_cases.xlsx
+++ b/TestDatas/api_cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -34,6 +34,9 @@
     <t>expected</t>
   </si>
   <si>
+    <t>check_sql</t>
+  </si>
+  <si>
     <t>注册成功-带注册名</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>{"code":1,"msg":"OK"}</t>
   </si>
   <si>
+    <t>select * from member where mobile_phone = "18600001112"</t>
+  </si>
+  <si>
     <t>成功不带用户名</t>
   </si>
   <si>
@@ -58,6 +64,9 @@
     <t>{"code":1,"msg":"手机号为空"}</t>
   </si>
   <si>
+    <t>select * from member where mobile_phone = "18600001113"</t>
+  </si>
+  <si>
     <t>不输入手机号</t>
   </si>
   <si>
@@ -140,6 +149,9 @@
   </si>
   <si>
     <t>{"mobile_phone":"#phone#","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>select * from member where mobile_phone = "#phone#"</t>
   </si>
 </sst>
 </file>
@@ -147,9 +159,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -170,21 +182,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,8 +226,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -207,15 +259,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,73 +297,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -320,19 +332,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,157 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,8 +523,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,11 +538,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,32 +583,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -605,129 +597,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,22 +748,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,23 +1096,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="60" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.3846153846154" style="1"/>
     <col min="2" max="2" width="20.7692307692308" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.2115384615385" customWidth="1"/>
     <col min="4" max="4" width="52.7692307692308" customWidth="1"/>
     <col min="5" max="5" width="91.3076923076923" customWidth="1"/>
-    <col min="6" max="6" width="59.2884615384615" customWidth="1"/>
+    <col min="6" max="6" width="39.8269230769231" customWidth="1"/>
+    <col min="7" max="7" width="60.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,45 +1132,54 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1165,19 +1187,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1185,19 +1207,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1205,19 +1227,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1225,19 +1247,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1245,19 +1267,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1265,19 +1287,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1285,19 +1307,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1305,19 +1327,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1325,19 +1347,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1345,39 +1367,42 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/TestDatas/api_cases.xlsx
+++ b/TestDatas/api_cases.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11900"/>
+    <workbookView windowWidth="28800" windowHeight="11900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
+    <sheet name="登录" sheetId="3" r:id="rId2"/>
+    <sheet name="用例编写说明" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="85">
   <si>
     <t>id</t>
   </si>
@@ -43,30 +45,27 @@
     <t xml:space="preserve">post </t>
   </si>
   <si>
-    <t>http://api.lemonban.com/futureloan/member/register</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"18600001112","pwd":"123456789","type":1,"reg_name":"美丽可爱的小简"}</t>
-  </si>
-  <si>
-    <t>{"code":1,"msg":"OK"}</t>
-  </si>
-  <si>
-    <t>select * from member where mobile_phone = "18600001112"</t>
+    <t>/member/register</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#phone#","pwd":"123456789","type":1,"reg_name":"美丽可爱的小简"}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"OK"}</t>
+  </si>
+  <si>
+    <t>select * from member where mobile_phone = "#phone#"</t>
   </si>
   <si>
     <t>成功不带用户名</t>
   </si>
   <si>
-    <t>{"mobile_phone":"18600001113","pwd":"123456789","type":1}</t>
+    <t>{"mobile_phone":"#phone#","pwd":"123456789","type":1}</t>
   </si>
   <si>
     <t>{"code":1,"msg":"手机号为空"}</t>
   </si>
   <si>
-    <t>select * from member where mobile_phone = "18600001113"</t>
-  </si>
-  <si>
     <t>不输入手机号</t>
   </si>
   <si>
@@ -151,7 +150,127 @@
     <t>{"mobile_phone":"#phone#","pwd":"12345678"}</t>
   </si>
   <si>
-    <t>select * from member where mobile_phone = "#phone#"</t>
+    <t>case_id</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>recharge</t>
+  </si>
+  <si>
+    <t>充值成功-整数</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>member/recharge</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"amount":600}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"ok"}</t>
+  </si>
+  <si>
+    <t>充值成功-1位小数</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"amount":600.1}</t>
+  </si>
+  <si>
+    <t>充值成功-2位小数</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"amount":600.22}</t>
+  </si>
+  <si>
+    <t>充值成功-50万</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"amount":500000}</t>
+  </si>
+  <si>
+    <t>会员id为空</t>
+  </si>
+  <si>
+    <t>{"amount":600}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"用户id为空"}</t>
+  </si>
+  <si>
+    <t>id不是当前登录的用户</t>
+  </si>
+  <si>
+    <t>{"member_id":98989898,"amount":600}</t>
+  </si>
+  <si>
+    <t>{"code":1007,"msg":"无权限访问，请检查参数"}</t>
+  </si>
+  <si>
+    <t>会员id为字符串</t>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#","amount":600}</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"数字格式化异常"}</t>
+  </si>
+  <si>
+    <t>会员id为小数</t>
+  </si>
+  <si>
+    <t>{"member_id":15.0,"amount":600}</t>
+  </si>
+  <si>
+    <t>充值金额为0</t>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#","amount":0}</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"金额必须大于0且小于或等于50万"}</t>
+  </si>
+  <si>
+    <t>充值金额为负数</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"amount":-600}</t>
+  </si>
+  <si>
+    <t>充值金额为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"充值金额为空"}</t>
+  </si>
+  <si>
+    <t>充值金额-3位小数</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"amount":600.222}</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"金额小数超过两位"}</t>
+  </si>
+  <si>
+    <t>充值金额-大于50万</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"amount":500001}</t>
+  </si>
+  <si>
+    <t>充值金额-非数字</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"amount":5万}</t>
+  </si>
+  <si>
+    <t>url（必须“/”开头）</t>
   </si>
 </sst>
 </file>
@@ -159,10 +278,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -182,7 +301,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,7 +315,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,46 +329,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -258,30 +337,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,14 +362,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,13 +445,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,6 +577,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -356,157 +607,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,8 +642,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,7 +652,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,17 +687,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,22 +722,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,28 +741,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,55 +771,55 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,37 +828,37 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -748,22 +867,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,8 +1217,8 @@
   <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="60" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -1107,7 +1226,7 @@
     <col min="1" max="1" width="10.3846153846154" style="1"/>
     <col min="2" max="2" width="20.7692307692308" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.2115384615385" customWidth="1"/>
-    <col min="4" max="4" width="52.7692307692308" customWidth="1"/>
+    <col min="4" max="4" width="18.3846153846154" customWidth="1"/>
     <col min="5" max="5" width="91.3076923076923" customWidth="1"/>
     <col min="6" max="6" width="39.8269230769231" customWidth="1"/>
     <col min="7" max="7" width="60.1538461538462" customWidth="1"/>
@@ -1179,7 +1298,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1187,7 +1306,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -1196,7 +1315,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -1207,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1216,10 +1335,10 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1227,7 +1346,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1236,10 +1355,10 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1247,7 +1366,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1256,10 +1375,10 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1267,7 +1386,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1276,10 +1395,10 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
         <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1287,7 +1406,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1296,10 +1415,10 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
         <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1307,7 +1426,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1316,10 +1435,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1327,7 +1446,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1336,10 +1455,10 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
         <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1347,7 +1466,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1356,10 +1475,10 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
         <v>38</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1367,7 +1486,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1376,10 +1495,10 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
         <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1387,7 +1506,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -1396,32 +1515,445 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="http://api.lemonban.com/futureloan/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
-    <hyperlink ref="D4" r:id="rId1" display="http://api.lemonban.com/futureloan/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
-    <hyperlink ref="D5" r:id="rId1" display="http://api.lemonban.com/futureloan/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
-    <hyperlink ref="D6" r:id="rId1" display="http://api.lemonban.com/futureloan/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
-    <hyperlink ref="D7" r:id="rId1" display="http://api.lemonban.com/futureloan/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
-    <hyperlink ref="D8" r:id="rId1" display="http://api.lemonban.com/futureloan/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
-    <hyperlink ref="D9" r:id="rId1" display="http://api.lemonban.com/futureloan/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
-    <hyperlink ref="D10" r:id="rId1" display="http://api.lemonban.com/futureloan/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
-    <hyperlink ref="D11" r:id="rId1" display="http://api.lemonban.com/futureloan/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
-    <hyperlink ref="D12" r:id="rId1" display="http://api.lemonban.com/futureloan/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
-    <hyperlink ref="D13" r:id="rId1" display="http://api.lemonban.com/futureloan/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
-    <hyperlink ref="D14" r:id="rId1" display="http://api.lemonban.com/futureloan/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
-    <hyperlink ref="D2" r:id="rId1" display="http://api.lemonban.com/futureloan/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
+    <hyperlink ref="D3" r:id="rId1" display="/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
+    <hyperlink ref="D4" r:id="rId1" display="/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
+    <hyperlink ref="D5" r:id="rId1" display="/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
+    <hyperlink ref="D6" r:id="rId1" display="/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
+    <hyperlink ref="D7" r:id="rId1" display="/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
+    <hyperlink ref="D8" r:id="rId1" display="/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
+    <hyperlink ref="D9" r:id="rId1" display="/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
+    <hyperlink ref="D10" r:id="rId1" display="/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
+    <hyperlink ref="D11" r:id="rId1" display="/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
+    <hyperlink ref="D12" r:id="rId1" display="/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
+    <hyperlink ref="D13" r:id="rId1" display="/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
+    <hyperlink ref="D14" r:id="rId1" display="/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
+    <hyperlink ref="D2" r:id="rId1" display="/member/register" tooltip="http://api.lemonban.com/futureloan/member/register"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="9.46153846153846" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="8.30769230769231" customWidth="1"/>
+    <col min="5" max="5" width="18.3846153846154" customWidth="1"/>
+    <col min="6" max="6" width="43.5865384615385" customWidth="1"/>
+    <col min="7" max="7" width="54.5384615384615" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="21.2307692307692" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/TestDatas/api_cases.xlsx
+++ b/TestDatas/api_cases.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
-    <sheet name="登录" sheetId="3" r:id="rId2"/>
+    <sheet name="充值" sheetId="3" r:id="rId2"/>
     <sheet name="用例编写说明" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="86">
   <si>
     <t>id</t>
   </si>
@@ -171,7 +171,10 @@
     <t>{"member_id":#member_id#,"amount":600}</t>
   </si>
   <si>
-    <t>{"code":0,"msg":"ok"}</t>
+    <t>{"code":0,"msg":"OK","data":{"id":#member_id#,"leave_amount":#money#}}</t>
+  </si>
+  <si>
+    <t>select cast(leave_amount as char) from futureloan.member where id = #member_id#</t>
   </si>
   <si>
     <t>充值成功-1位小数</t>
@@ -228,10 +231,10 @@
     <t>充值金额为0</t>
   </si>
   <si>
-    <t>{"member_id":"#member_id#","amount":0}</t>
-  </si>
-  <si>
-    <t>{"code":2,"msg":"金额必须大于0且小于或等于50万"}</t>
+    <t>{"member_id":#member_id#,"amount":0}</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
   </si>
   <si>
     <t>充值金额为负数</t>
@@ -246,16 +249,13 @@
     <t>{"member_id":#member_id#}</t>
   </si>
   <si>
-    <t>{"code":1,"msg":"充值金额为空"}</t>
-  </si>
-  <si>
     <t>充值金额-3位小数</t>
   </si>
   <si>
     <t>{"member_id":#member_id#,"amount":600.222}</t>
   </si>
   <si>
-    <t>{"code":2,"msg":"金额小数超过两位"}</t>
+    <t>{"code":2,"msg":"余额小数超过两位"}</t>
   </si>
   <si>
     <t>充值金额-大于50万</t>
@@ -267,10 +267,13 @@
     <t>充值金额-非数字</t>
   </si>
   <si>
-    <t>{"member_id":#member_id#,"amount":5万}</t>
+    <t>{"member_id":#member_id#,"amount":"5万"}</t>
   </si>
   <si>
     <t>url（必须“/”开头）</t>
+  </si>
+  <si>
+    <t>cast(data as char)作用是将类型转换为字符串</t>
   </si>
 </sst>
 </file>
@@ -886,9 +889,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1217,7 +1223,7 @@
   <sheetPr/>
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScaleSheetLayoutView="60" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1265,7 +1271,7 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
@@ -1288,7 +1294,7 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
@@ -1311,7 +1317,7 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
@@ -1331,7 +1337,7 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
@@ -1351,7 +1357,7 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
@@ -1371,7 +1377,7 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
@@ -1391,7 +1397,7 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
@@ -1411,7 +1417,7 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
@@ -1431,7 +1437,7 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
@@ -1451,7 +1457,7 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
@@ -1471,7 +1477,7 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
@@ -1491,7 +1497,7 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
@@ -1511,7 +1517,7 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
@@ -1548,23 +1554,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="9.46153846153846" customWidth="1"/>
     <col min="3" max="3" width="26.75" customWidth="1"/>
     <col min="4" max="4" width="8.30769230769231" customWidth="1"/>
     <col min="5" max="5" width="18.3846153846154" customWidth="1"/>
-    <col min="6" max="6" width="43.5865384615385" customWidth="1"/>
-    <col min="7" max="7" width="54.5384615384615" customWidth="1"/>
+    <col min="6" max="6" width="48.8461538461538" customWidth="1"/>
+    <col min="7" max="7" width="78.0769230769231" customWidth="1"/>
+    <col min="8" max="8" width="85" customWidth="1"/>
+    <col min="9" max="9" width="30.3942307692308" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1586,8 +1594,11 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1609,8 +1620,11 @@
       <c r="G2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1618,7 +1632,7 @@
         <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
         <v>48</v>
@@ -1627,13 +1641,16 @@
         <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1641,7 +1658,7 @@
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>48</v>
@@ -1650,13 +1667,16 @@
         <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1664,7 +1684,7 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
         <v>48</v>
@@ -1673,10 +1693,13 @@
         <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
         <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1687,7 +1710,7 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
         <v>48</v>
@@ -1696,10 +1719,10 @@
         <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1710,7 +1733,7 @@
         <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
         <v>48</v>
@@ -1719,10 +1742,10 @@
         <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1733,7 +1756,7 @@
         <v>46</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -1742,10 +1765,10 @@
         <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1756,7 +1779,7 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
         <v>48</v>
@@ -1765,10 +1788,10 @@
         <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1779,7 +1802,7 @@
         <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
         <v>48</v>
@@ -1788,10 +1811,10 @@
         <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1802,7 +1825,7 @@
         <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
         <v>48</v>
@@ -1811,10 +1834,10 @@
         <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1825,7 +1848,7 @@
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -1834,10 +1857,10 @@
         <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1883,7 +1906,7 @@
         <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1906,7 +1929,7 @@
         <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1918,13 +1941,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="21.2307692307692" customWidth="1"/>
   </cols>
@@ -1952,7 +1975,24 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:G8"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/TestDatas/api_cases.xlsx
+++ b/TestDatas/api_cases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>cast(data as char)作用是将类型转换为字符串</t>
+  </si>
+  <si>
+    <t>$.code=0,$.msg="OK",$..id=#member_id#,$..leave_amount=#money#</t>
   </si>
 </sst>
 </file>
@@ -1556,8 +1559,8 @@
   <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
@@ -1941,13 +1944,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="21.2307692307692" customWidth="1"/>
   </cols>
@@ -1989,6 +1992,11 @@
         <v>85</v>
       </c>
     </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A8:G8"/>

--- a/TestDatas/api_cases.xlsx
+++ b/TestDatas/api_cases.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11900" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11900" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
     <sheet name="充值" sheetId="3" r:id="rId2"/>
     <sheet name="用例编写说明" sheetId="2" r:id="rId3"/>
+    <sheet name="业务流" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="95">
   <si>
     <t>id</t>
   </si>
@@ -277,6 +278,30 @@
   </si>
   <si>
     <t>$.code=0,$.msg="OK",$..id=#member_id#,$..leave_amount=#money#</t>
+  </si>
+  <si>
+    <t>注册</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#phone#","pwd":"123456789","type":1,"reg_name":"要结婚的小耳朵"}</t>
+  </si>
+  <si>
+    <t>登录</t>
+  </si>
+  <si>
+    <t>/member/login</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#phone#","pwd":"123456789"}</t>
+  </si>
+  <si>
+    <t>{"member_id":"$..id","token":"$..token"}</t>
+  </si>
+  <si>
+    <t>充值</t>
+  </si>
+  <si>
+    <t>/member/recharge</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1584,7 @@
   <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="F3" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2004,4 +2029,100 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="4" max="4" width="18.3846153846154" customWidth="1"/>
+    <col min="5" max="5" width="89.6923076923077" customWidth="1"/>
+    <col min="6" max="6" width="40.3076923076923" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/TestDatas/api_cases.xlsx
+++ b/TestDatas/api_cases.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11900" activeTab="3"/>
+    <workbookView windowWidth="27900" windowHeight="11900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
     <sheet name="充值" sheetId="3" r:id="rId2"/>
-    <sheet name="用例编写说明" sheetId="2" r:id="rId3"/>
-    <sheet name="业务流" sheetId="4" r:id="rId4"/>
+    <sheet name="加标" sheetId="6" r:id="rId3"/>
+    <sheet name="用例编写说明" sheetId="2" r:id="rId4"/>
+    <sheet name="业务流" sheetId="4" r:id="rId5"/>
+    <sheet name="投资" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="150">
   <si>
     <t>id</t>
   </si>
@@ -271,6 +273,129 @@
     <t>{"member_id":#member_id#,"amount":"5万"}</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>extract_data</t>
+  </si>
+  <si>
+    <t>before</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>前置操作-管理员登录</t>
+  </si>
+  <si>
+    <t>/member/login</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#admin#","pwd":"#admin_passwd#"}</t>
+  </si>
+  <si>
+    <t>{"admin_member_id":"$..id","admin_token":"$..token"}</t>
+  </si>
+  <si>
+    <t>select * from futureloan.loan where member_id = #admin_member_id#</t>
+  </si>
+  <si>
+    <t>case</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>加标成功</t>
+  </si>
+  <si>
+    <t>/loan/add</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财务自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>加标失败-借款人id为空</t>
+  </si>
+  <si>
+    <t>{"title":"借钱实现财务自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>加标失败-标题为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"标题为空"}</t>
+  </si>
+  <si>
+    <t>加标失败-借款金额为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财务自由","loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"借款金额为空"}</t>
+  </si>
+  <si>
+    <t>加标失败-年利率为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财务自由","amount":2000,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"利率为空"}</t>
+  </si>
+  <si>
+    <t>加标失败-借款期限为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财务自由","amount":2000,"loan_rate":12.0,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"借款期限为空"}</t>
+  </si>
+  <si>
+    <t>加标失败-借款期限类型为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财务自由","amount":2000,"loan_rate":12.0,"loan_term":3,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"借款日期类型为空"}</t>
+  </si>
+  <si>
+    <t>加标失败-竞标天数为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财务自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"竞标期限为空"}</t>
+  </si>
+  <si>
+    <t>加标失败-借款人id不是当前登录用户</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#+1,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>加标失败-借款金额为负数</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财务自由","amount":-2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"借款金额范围错误"}</t>
+  </si>
+  <si>
+    <t>加标失败-借款金额为小数</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财务自由","amount":2000.1,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
     <t>url（必须“/”开头）</t>
   </si>
   <si>
@@ -283,15 +408,12 @@
     <t>注册</t>
   </si>
   <si>
-    <t>{"mobile_phone":"#phone#","pwd":"123456789","type":1,"reg_name":"要结婚的小耳朵"}</t>
+    <t>{"mobile_phone":"#phone#","pwd":"123456789","type":0,"reg_name":"要结婚的管理员"}</t>
   </si>
   <si>
     <t>登录</t>
   </si>
   <si>
-    <t>/member/login</t>
-  </si>
-  <si>
     <t>{"mobile_phone":"#phone#","pwd":"123456789"}</t>
   </si>
   <si>
@@ -302,6 +424,51 @@
   </si>
   <si>
     <t>/member/recharge</t>
+  </si>
+  <si>
+    <t>管理员登录</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"admin","pwd":"#admin_passwd#"}</t>
+  </si>
+  <si>
+    <t>管理员加标</t>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#","title":"借钱实现财务自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"loan_id":"???"}</t>
+  </si>
+  <si>
+    <t>审核</t>
+  </si>
+  <si>
+    <t>patch</t>
+  </si>
+  <si>
+    <t>/loan/audit</t>
+  </si>
+  <si>
+    <t>{"loan_id":"#loan_id#","approved_or_not":True}</t>
+  </si>
+  <si>
+    <t>普通用户登录</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"user","pwd":"#password#"}</t>
+  </si>
+  <si>
+    <t>普通用户充值</t>
+  </si>
+  <si>
+    <t>{"member_id":"#member_id#","amount":20000}</t>
+  </si>
+  <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>/member/invest</t>
   </si>
 </sst>
 </file>
@@ -917,9 +1084,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1257,8 +1427,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="10.3846153846154" style="1"/>
-    <col min="2" max="2" width="20.7692307692308" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3846153846154" style="2"/>
+    <col min="2" max="2" width="20.7692307692308" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.2115384615385" customWidth="1"/>
     <col min="4" max="4" width="18.3846153846154" customWidth="1"/>
     <col min="5" max="5" width="91.3076923076923" customWidth="1"/>
@@ -1267,10 +1437,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1290,16 +1460,16 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
@@ -1313,16 +1483,16 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
@@ -1336,16 +1506,16 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
@@ -1356,16 +1526,16 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
@@ -1376,16 +1546,16 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
@@ -1396,16 +1566,16 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
@@ -1416,16 +1586,16 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
@@ -1436,16 +1606,16 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
@@ -1456,16 +1626,16 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
@@ -1476,16 +1646,16 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
@@ -1496,16 +1666,16 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
@@ -1516,16 +1686,16 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
@@ -1536,16 +1706,16 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
@@ -1969,6 +2139,377 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="3" max="3" width="9.46153846153846" customWidth="1"/>
+    <col min="4" max="4" width="39.6153846153846" customWidth="1"/>
+    <col min="6" max="6" width="16.0769230769231" customWidth="1"/>
+    <col min="7" max="7" width="57.9230769230769" style="1" customWidth="1"/>
+    <col min="8" max="8" width="55.3846153846154" customWidth="1"/>
+    <col min="9" max="9" width="49.6923076923077" customWidth="1"/>
+    <col min="10" max="10" width="72.1538461538462" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" spans="1:10">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="17" spans="2:10">
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" ht="51" spans="1:9">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="51" spans="1:9">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" ht="34" spans="1:9">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" ht="51" spans="1:9">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" ht="51" spans="1:9">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" ht="51" spans="1:9">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" ht="51" spans="1:9">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" ht="51" spans="1:9">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" ht="68" spans="1:9">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" ht="68" spans="1:9">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" ht="51" spans="1:9">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1981,17 +2522,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -2004,22 +2545,22 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2031,13 +2572,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -2072,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
         <v>48</v>
@@ -2081,7 +2622,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2089,19 +2630,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
         <v>89</v>
       </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>90</v>
-      </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2109,16 +2650,189 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
         <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="6"/>
+  <cols>
+    <col min="3" max="3" width="15.1538461538462" customWidth="1"/>
+    <col min="4" max="4" width="8.30769230769231" customWidth="1"/>
+    <col min="5" max="5" width="19.5384615384615" customWidth="1"/>
+    <col min="6" max="6" width="53.8653846153846" customWidth="1"/>
+    <col min="7" max="7" width="55.3846153846154" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" ht="68" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/TestDatas/api_cases.xlsx
+++ b/TestDatas/api_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="11900" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="11300" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="注册" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="163">
   <si>
     <t>id</t>
   </si>
@@ -450,25 +450,64 @@
     <t>/loan/audit</t>
   </si>
   <si>
-    <t>{"loan_id":"#loan_id#","approved_or_not":True}</t>
+    <t>{"loan_id":#loan_id#,"approved_or_not":True}</t>
   </si>
   <si>
     <t>普通用户登录</t>
   </si>
   <si>
-    <t>{"mobile_phone":"user","pwd":"#password#"}</t>
+    <t>{"mobile_phone":"#user#","pwd":"#password#"}</t>
   </si>
   <si>
     <t>普通用户充值</t>
   </si>
   <si>
-    <t>{"member_id":"#member_id#","amount":20000}</t>
+    <t>{"member_id":#member_id#,"amount":20000}</t>
   </si>
   <si>
     <t>投资</t>
   </si>
   <si>
     <t>/member/invest</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":20000}</t>
+  </si>
+  <si>
+    <t>投资人正常投资</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#,"amount":300}</t>
+  </si>
+  <si>
+    <t>投资人id为空</t>
+  </si>
+  <si>
+    <t>"loan_id":#loan_id#,"amount":300}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"会员id为空"}</t>
+  </si>
+  <si>
+    <t>标id为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"amount":300}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"项目id为空"}</t>
+  </si>
+  <si>
+    <t>投资金额为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"loan_id":#loan_id#}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"余额为空"}</t>
+  </si>
+  <si>
+    <t>投资金额超过标的金额(前置操作)</t>
   </si>
 </sst>
 </file>
@@ -476,10 +515,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -506,14 +545,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,10 +591,31 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -544,23 +628,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,14 +637,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,17 +651,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -611,28 +672,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -640,6 +679,96 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -649,31 +778,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,13 +802,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,19 +832,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,85 +850,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,7 +889,61 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,30 +963,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -904,159 +973,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1065,34 +1104,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1469,7 +1505,7 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
@@ -1492,7 +1528,7 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
@@ -1515,7 +1551,7 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
@@ -1535,7 +1571,7 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
@@ -1555,7 +1591,7 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
@@ -1575,7 +1611,7 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
@@ -1595,7 +1631,7 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
@@ -1615,7 +1651,7 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
@@ -1635,7 +1671,7 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
@@ -1655,7 +1691,7 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
@@ -1675,7 +1711,7 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
@@ -1695,7 +1731,7 @@
       <c r="C13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
@@ -1715,7 +1751,7 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
@@ -2141,7 +2177,7 @@
   <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A9" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -2210,7 +2246,6 @@
       <c r="H2" t="s">
         <v>91</v>
       </c>
-      <c r="I2"/>
       <c r="J2" t="s">
         <v>92</v>
       </c>
@@ -2545,15 +2580,15 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" t="s">
         <v>126</v>
       </c>
@@ -2671,22 +2706,23 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
-    <col min="3" max="3" width="15.1538461538462" customWidth="1"/>
+    <col min="3" max="3" width="35.9230769230769" customWidth="1"/>
     <col min="4" max="4" width="8.30769230769231" customWidth="1"/>
     <col min="5" max="5" width="19.5384615384615" customWidth="1"/>
-    <col min="6" max="6" width="53.8653846153846" customWidth="1"/>
+    <col min="6" max="6" width="72.3076923076923" customWidth="1"/>
     <col min="7" max="7" width="55.3846153846154" customWidth="1"/>
+    <col min="8" max="8" width="31.2307692307692" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2706,7 +2742,13 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2732,7 +2774,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" ht="68" spans="1:7">
+    <row r="3" ht="51" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2818,7 +2860,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2833,6 +2875,124 @@
       </c>
       <c r="E7" t="s">
         <v>149</v>
+      </c>
+      <c r="F7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
